--- a/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según si tienen obesidad en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según si tienen obesidad en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según si tienen obesidad en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según si tienen obesidad en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>80690</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64671</v>
+        <v>64067</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99357</v>
+        <v>99255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1170567750588922</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09381833075655244</v>
+        <v>0.09294208291254007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1441371053197021</v>
+        <v>0.1439890629934504</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -765,19 +765,19 @@
         <v>104834</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87020</v>
+        <v>89019</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123013</v>
+        <v>123955</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1543813195511227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1281490666394678</v>
+        <v>0.1310928282395378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1811526906147716</v>
+        <v>0.1825400922860927</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -786,19 +786,19 @@
         <v>185524</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159400</v>
+        <v>160568</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210282</v>
+        <v>211090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1355789977463804</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1164881945404043</v>
+        <v>0.1173419296797148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1536720128601878</v>
+        <v>0.1542626406627813</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>608635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>589968</v>
+        <v>590070</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>624654</v>
+        <v>625258</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8829432249411079</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8558628946802979</v>
+        <v>0.8560109370065495</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9061816692434475</v>
+        <v>0.9070579170874599</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>581</v>
@@ -836,19 +836,19 @@
         <v>574222</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>556043</v>
+        <v>555101</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>592036</v>
+        <v>590037</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8456186804488773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8188473093852285</v>
+        <v>0.8174599077139074</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8718509333605322</v>
+        <v>0.8689071717604622</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1180</v>
@@ -857,19 +857,19 @@
         <v>1182856</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1158098</v>
+        <v>1157290</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1208980</v>
+        <v>1207812</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8644210022536196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8463279871398125</v>
+        <v>0.8457373593372189</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.883511805459596</v>
+        <v>0.8826580703202853</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>139964</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119222</v>
+        <v>120349</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162785</v>
+        <v>163487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1467576763124779</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1250085171847132</v>
+        <v>0.1261901244029706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1706859314205801</v>
+        <v>0.1714221841025172</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -982,19 +982,19 @@
         <v>144342</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>122019</v>
+        <v>122810</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>167177</v>
+        <v>167012</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1510338422209306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1276764362344222</v>
+        <v>0.1285041273167596</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1749269974133557</v>
+        <v>0.1747545489917361</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>262</v>
@@ -1003,19 +1003,19 @@
         <v>284306</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>253832</v>
+        <v>251488</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>317761</v>
+        <v>316451</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1488979796385868</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1329377913397394</v>
+        <v>0.1317103036260389</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1664192886706997</v>
+        <v>0.165732810216032</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>813746</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>790925</v>
+        <v>790223</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>834488</v>
+        <v>833361</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8532423236875221</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.82931406857942</v>
+        <v>0.8285778158974829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8749914828152868</v>
+        <v>0.8738098755970294</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>764</v>
@@ -1053,19 +1053,19 @@
         <v>811351</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>788516</v>
+        <v>788681</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>833674</v>
+        <v>832883</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8489661577790695</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.825073002586644</v>
+        <v>0.8252454510082637</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8723235637655766</v>
+        <v>0.8714958726832404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1524</v>
@@ -1074,19 +1074,19 @@
         <v>1625097</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1591642</v>
+        <v>1592952</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1655571</v>
+        <v>1657915</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8511020203614132</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8335807113293004</v>
+        <v>0.834267189783968</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8670622086602608</v>
+        <v>0.8682896963739609</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>73032</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56918</v>
+        <v>57388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90938</v>
+        <v>90369</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1086588284267667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08468488240257048</v>
+        <v>0.08538379537779228</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1353002938829948</v>
+        <v>0.1344528432304269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -1199,19 +1199,19 @@
         <v>96577</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81248</v>
+        <v>79518</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115118</v>
+        <v>115195</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1426184568069581</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1199815313179088</v>
+        <v>0.1174275138180996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1699989977179342</v>
+        <v>0.1701131816104146</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>169</v>
@@ -1220,19 +1220,19 @@
         <v>169609</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>148763</v>
+        <v>145967</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196744</v>
+        <v>195577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1257021629140613</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.11025306139763</v>
+        <v>0.1081804766714955</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1458132810657419</v>
+        <v>0.1449483639679291</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>599089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>581183</v>
+        <v>581752</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>615203</v>
+        <v>614733</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8913411715732333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8646997061170051</v>
+        <v>0.8655471567695731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9153151175974296</v>
+        <v>0.9146162046222077</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>590</v>
@@ -1270,19 +1270,19 @@
         <v>580592</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>562051</v>
+        <v>561974</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>595921</v>
+        <v>597651</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8573815431930419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8300010022820657</v>
+        <v>0.829886818389586</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8800184686820911</v>
+        <v>0.8825724861819008</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1156</v>
@@ -1291,19 +1291,19 @@
         <v>1179681</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1152546</v>
+        <v>1153713</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1200527</v>
+        <v>1203323</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8742978370859387</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8541867189342578</v>
+        <v>0.8550516360320709</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.88974693860237</v>
+        <v>0.8918195233285042</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>101766</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84526</v>
+        <v>85429</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122969</v>
+        <v>121317</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1095522074023303</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09099334812455324</v>
+        <v>0.09196549711827703</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1323780890746009</v>
+        <v>0.130599509001159</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -1416,19 +1416,19 @@
         <v>151558</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>129368</v>
+        <v>130560</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>176490</v>
+        <v>175952</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1484322359944095</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1266996276909414</v>
+        <v>0.1278668864910107</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1728492239864785</v>
+        <v>0.172322653905685</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>252</v>
@@ -1437,19 +1437,19 @@
         <v>253324</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>223333</v>
+        <v>225046</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>283619</v>
+        <v>284143</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1299107750500323</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1145305597256968</v>
+        <v>0.1154093548678454</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1454466682895718</v>
+        <v>0.1457156825904657</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>827157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>805954</v>
+        <v>807606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>844397</v>
+        <v>843494</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8904477925976697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8676219109253991</v>
+        <v>0.869400490998841</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9090066518754468</v>
+        <v>0.908034502881723</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>837</v>
@@ -1487,19 +1487,19 @@
         <v>869503</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>844571</v>
+        <v>845109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>891693</v>
+        <v>890501</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8515677640055905</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8271507760135215</v>
+        <v>0.8276773460943151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8733003723090587</v>
+        <v>0.8721331135089895</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1709</v>
@@ -1508,19 +1508,19 @@
         <v>1696660</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1666365</v>
+        <v>1665841</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1726651</v>
+        <v>1724938</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8700892249499678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8545533317104282</v>
+        <v>0.8542843174095343</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8854694402743032</v>
+        <v>0.8845906451321546</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>395452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1218995832882864</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>483</v>
@@ -1633,19 +1633,19 @@
         <v>497311</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1492090746758289</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>868</v>
@@ -1654,19 +1654,19 @@
         <v>892762</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1357388950030567</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2848627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2813055</v>
+        <v>2805993</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2887731</v>
+        <v>2883061</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8781004167117136</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8671353028266651</v>
+        <v>0.8649583510119456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8901544535236791</v>
+        <v>0.8887149311415589</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2772</v>
@@ -1704,19 +1704,19 @@
         <v>2835667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2792034</v>
+        <v>2794530</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2876699</v>
+        <v>2879118</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8507909253241711</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8376994493463912</v>
+        <v>0.8384485014976569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8631016903355717</v>
+        <v>0.8638274480722148</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5569</v>
@@ -1725,19 +1725,19 @@
         <v>5684295</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5626667</v>
+        <v>5629187</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5737446</v>
+        <v>5735621</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8642611049969433</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8554992020650134</v>
+        <v>0.855882360299974</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8723425095898083</v>
+        <v>0.872064989763252</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>136290</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>114336</v>
+        <v>117112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>156577</v>
+        <v>158902</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1964920018538618</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1648406966593292</v>
+        <v>0.1688432632116196</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2257402219623854</v>
+        <v>0.2290925275145012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -2090,19 +2090,19 @@
         <v>142742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123042</v>
+        <v>121001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166487</v>
+        <v>166516</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2155698742284972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1858186738804083</v>
+        <v>0.1827359212365648</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2514293130504423</v>
+        <v>0.2514733110793599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>264</v>
@@ -2111,19 +2111,19 @@
         <v>279032</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>250217</v>
+        <v>248980</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>309258</v>
+        <v>310631</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2058096540141748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1845564063852053</v>
+        <v>0.1836439158350195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2281041397790167</v>
+        <v>0.2291166218117051</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>557324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>537037</v>
+        <v>534712</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>579278</v>
+        <v>576502</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8035079981461382</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7742597780376146</v>
+        <v>0.770907472485499</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8351593033406709</v>
+        <v>0.8311567367883804</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>482</v>
@@ -2161,19 +2161,19 @@
         <v>519421</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>495676</v>
+        <v>495647</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>539121</v>
+        <v>541162</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7844301257715028</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7485706869495566</v>
+        <v>0.7485266889206399</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8141813261195916</v>
+        <v>0.817264078763435</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1018</v>
@@ -2182,19 +2182,19 @@
         <v>1076745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1046519</v>
+        <v>1045146</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1105560</v>
+        <v>1106797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7941903459858253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7718958602209833</v>
+        <v>0.7708833781882949</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8154435936147947</v>
+        <v>0.8163560841649804</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>172938</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148506</v>
+        <v>148948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>199367</v>
+        <v>197620</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1743607663722469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1497277205609478</v>
+        <v>0.1501734097390273</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2010076505439105</v>
+        <v>0.1992465552449315</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>206</v>
@@ -2307,19 +2307,19 @@
         <v>225094</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>199829</v>
+        <v>198175</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>254880</v>
+        <v>253135</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2276019314439618</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2020556808197727</v>
+        <v>0.2003837968763232</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2577203413311664</v>
+        <v>0.2559563885859411</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>365</v>
@@ -2328,19 +2328,19 @@
         <v>398031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>362620</v>
+        <v>365909</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>436746</v>
+        <v>437516</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.200942926752871</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1830658767834314</v>
+        <v>0.1847263164529141</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2204876964694587</v>
+        <v>0.2208768529933354</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>818900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>792471</v>
+        <v>794218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>843332</v>
+        <v>842890</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8256392336277532</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7989923494560893</v>
+        <v>0.8007534447550687</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8502722794390521</v>
+        <v>0.8498265902609726</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>694</v>
@@ -2378,19 +2378,19 @@
         <v>763885</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>734099</v>
+        <v>735844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>789150</v>
+        <v>790804</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7723980685560382</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7422796586688335</v>
+        <v>0.7440436114140588</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7979443191802273</v>
+        <v>0.7996162031236766</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1449</v>
@@ -2399,19 +2399,19 @@
         <v>1582785</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1544070</v>
+        <v>1543300</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1618196</v>
+        <v>1614907</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.799057073247129</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7795123035305415</v>
+        <v>0.7791231470066646</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8169341232165688</v>
+        <v>0.815273683547086</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>107865</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89614</v>
+        <v>89110</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130410</v>
+        <v>131115</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1457745776649124</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1211094130858811</v>
+        <v>0.1204277370442122</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1762426815797744</v>
+        <v>0.177195204279025</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>141</v>
@@ -2524,19 +2524,19 @@
         <v>151746</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129393</v>
+        <v>130010</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>174024</v>
+        <v>174611</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2035216354654765</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1735424263268302</v>
+        <v>0.1743692804825753</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2334008294969555</v>
+        <v>0.2341883096006147</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>236</v>
@@ -2545,19 +2545,19 @@
         <v>259611</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>230194</v>
+        <v>231383</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>291055</v>
+        <v>292727</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1747580644916</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1549557602861869</v>
+        <v>0.155756622948839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.195924549653737</v>
+        <v>0.1970502332566247</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>632079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>609534</v>
+        <v>608829</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>650330</v>
+        <v>650834</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8542254223350876</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8237573184202256</v>
+        <v>0.8228047957209749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8788905869141189</v>
+        <v>0.8795722629557876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>536</v>
@@ -2595,19 +2595,19 @@
         <v>593855</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>571577</v>
+        <v>570990</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>616208</v>
+        <v>615591</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7964783645345236</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7665991705030444</v>
+        <v>0.7658116903993852</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8264575736731697</v>
+        <v>0.8256307195174246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1114</v>
@@ -2616,19 +2616,19 @@
         <v>1225934</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1194490</v>
+        <v>1192818</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1255351</v>
+        <v>1254162</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8252419355084</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8040754503462629</v>
+        <v>0.802949766743375</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.845044239713813</v>
+        <v>0.844243377051161</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>138211</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116293</v>
+        <v>117020</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>162513</v>
+        <v>163808</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1478275117975922</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1243850554407426</v>
+        <v>0.1251622238362704</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1738208701980608</v>
+        <v>0.175206377376478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>187</v>
@@ -2741,19 +2741,19 @@
         <v>198427</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>172845</v>
+        <v>173224</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>225971</v>
+        <v>225527</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1963070335710049</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1709987243932824</v>
+        <v>0.1713734682000686</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2235564751432415</v>
+        <v>0.2231178411167335</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>314</v>
@@ -2762,19 +2762,19 @@
         <v>336637</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>301847</v>
+        <v>301685</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>367130</v>
+        <v>369510</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.173012252634781</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1551318983278446</v>
+        <v>0.1550484926905711</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1886835982668919</v>
+        <v>0.1899067795244458</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>796734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>772432</v>
+        <v>771137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>818652</v>
+        <v>817925</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8521724882024079</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8261791298019393</v>
+        <v>0.824793622623522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8756149445592571</v>
+        <v>0.8748377761637296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>775</v>
@@ -2812,19 +2812,19 @@
         <v>812372</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>784828</v>
+        <v>785272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>837954</v>
+        <v>837575</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8036929664289951</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7764435248567577</v>
+        <v>0.7768821588832665</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8290012756067173</v>
+        <v>0.8286265317999314</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1545</v>
@@ -2833,19 +2833,19 @@
         <v>1609106</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1578613</v>
+        <v>1576233</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1643896</v>
+        <v>1644058</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8269877473652191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.811316401733108</v>
+        <v>0.8100932204755541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8448681016721554</v>
+        <v>0.8449515073094289</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>555303</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>509525</v>
+        <v>515435</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>605647</v>
+        <v>603805</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1652519369933603</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1516289655994046</v>
+        <v>0.153387701039976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1802338987128513</v>
+        <v>0.1796858143168582</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>669</v>
@@ -2958,19 +2958,19 @@
         <v>718009</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>672690</v>
+        <v>671745</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>770058</v>
+        <v>767903</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2107116530554805</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1974121597492258</v>
+        <v>0.1971348882414079</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2259863696221692</v>
+        <v>0.2253540689922032</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1179</v>
@@ -2979,19 +2979,19 @@
         <v>1273311</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1205324</v>
+        <v>1198779</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1339959</v>
+        <v>1333796</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1881403202191062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1780946611697248</v>
+        <v>0.1771276022033057</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1979878712914117</v>
+        <v>0.1970773354030113</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2805037</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2754693</v>
+        <v>2756535</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2850815</v>
+        <v>2844905</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8347480630066397</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8197661012871489</v>
+        <v>0.8203141856831417</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8483710344005957</v>
+        <v>0.8466122989600241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2487</v>
@@ -3029,19 +3029,19 @@
         <v>2689533</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2637484</v>
+        <v>2639639</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2734852</v>
+        <v>2735797</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7892883469445194</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7740136303778308</v>
+        <v>0.7746459310077967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8025878402507742</v>
+        <v>0.8028651117585921</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5126</v>
@@ -3050,19 +3050,19 @@
         <v>5494571</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5427923</v>
+        <v>5434086</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5562558</v>
+        <v>5569103</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8118596797808938</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8020121287085882</v>
+        <v>0.8029226645969885</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8219053388302749</v>
+        <v>0.822872397796694</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>129237</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>111659</v>
+        <v>108480</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150564</v>
+        <v>151055</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2024548879686746</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1749171615031533</v>
+        <v>0.1699381536327325</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.235864328915962</v>
+        <v>0.2366331043232407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>118</v>
@@ -3415,19 +3415,19 @@
         <v>121516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102678</v>
+        <v>100736</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>144322</v>
+        <v>141008</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1973229281462351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1667326561630432</v>
+        <v>0.1635798347618728</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2343556133913938</v>
+        <v>0.2289745093181621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>240</v>
@@ -3436,19 +3436,19 @@
         <v>250753</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>222438</v>
+        <v>224434</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>279721</v>
+        <v>283800</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.19993499815119</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.177357958969122</v>
+        <v>0.1789495225719531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.223032218923523</v>
+        <v>0.2262843579549263</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>509114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>487787</v>
+        <v>487296</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>526692</v>
+        <v>529871</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7975451120313254</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.764135671084038</v>
+        <v>0.763366895676759</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8250828384968468</v>
+        <v>0.8300618463672674</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>496</v>
@@ -3486,19 +3486,19 @@
         <v>494307</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>471501</v>
+        <v>474815</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>513145</v>
+        <v>515087</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8026770718537649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.765644386608606</v>
+        <v>0.7710254906818376</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8332673438369567</v>
+        <v>0.836420165238127</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>990</v>
@@ -3507,19 +3507,19 @@
         <v>1003421</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>974453</v>
+        <v>970374</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1031736</v>
+        <v>1029740</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.80006500184881</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.776967781076477</v>
+        <v>0.7737156420450735</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8226420410308781</v>
+        <v>0.8210504774280468</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>177334</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153924</v>
+        <v>154519</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>204795</v>
+        <v>202863</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1801709854565536</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.156387077717025</v>
+        <v>0.1569909103361371</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2080713384828337</v>
+        <v>0.2061088740304398</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>184</v>
@@ -3632,19 +3632,19 @@
         <v>199887</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176978</v>
+        <v>174429</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>224654</v>
+        <v>228505</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2010504236957263</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1780076210229324</v>
+        <v>0.1754442718955427</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2259614237620757</v>
+        <v>0.2298345458164065</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>348</v>
@@ -3653,19 +3653,19 @@
         <v>377221</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>343142</v>
+        <v>341441</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>414152</v>
+        <v>415973</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.190663273382583</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1734384595404533</v>
+        <v>0.1725784524029419</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2093295997154629</v>
+        <v>0.2102499308824233</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>806919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>779458</v>
+        <v>781390</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>830329</v>
+        <v>829734</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8198290145434464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7919286615171661</v>
+        <v>0.7938911259695599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.843612922282975</v>
+        <v>0.8430090896638629</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>751</v>
@@ -3703,19 +3703,19 @@
         <v>794328</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>769561</v>
+        <v>765710</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>817237</v>
+        <v>819786</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7989495763042737</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7740385762379243</v>
+        <v>0.7701654541835935</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8219923789770676</v>
+        <v>0.8245557281044572</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1503</v>
@@ -3724,19 +3724,19 @@
         <v>1601247</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1564316</v>
+        <v>1562495</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1635326</v>
+        <v>1637027</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.809336726617417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7906704002845372</v>
+        <v>0.7897500691175768</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8265615404595467</v>
+        <v>0.8274215475970582</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>117115</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97905</v>
+        <v>97715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138779</v>
+        <v>138292</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.157084719453244</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1313180357832995</v>
+        <v>0.1310634307049292</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1861425073896243</v>
+        <v>0.1854885104770995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -3849,19 +3849,19 @@
         <v>116074</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96165</v>
+        <v>95164</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138808</v>
+        <v>138197</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1552825798040716</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1286485454844714</v>
+        <v>0.1273101160079709</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1856966859954033</v>
+        <v>0.1848786426931954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>209</v>
@@ -3870,19 +3870,19 @@
         <v>233189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198826</v>
+        <v>203833</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>260996</v>
+        <v>262287</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1561824768396843</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.133167263038589</v>
+        <v>0.1365205639393426</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1748066817556805</v>
+        <v>0.1756716084710718</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>628440</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>606776</v>
+        <v>607263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>647650</v>
+        <v>647840</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.842915280546756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8138574926103752</v>
+        <v>0.8145114895229009</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8686819642167003</v>
+        <v>0.8689365692950709</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>601</v>
@@ -3920,19 +3920,19 @@
         <v>631425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>608691</v>
+        <v>609302</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>651334</v>
+        <v>652335</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8447174201959284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8143033140045968</v>
+        <v>0.8151213573068048</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8713514545155286</v>
+        <v>0.8726898839920291</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1176</v>
@@ -3941,19 +3941,19 @@
         <v>1259865</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1232058</v>
+        <v>1230767</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1294228</v>
+        <v>1289221</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8438175231603157</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8251933182443194</v>
+        <v>0.8243283915289285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8668327369614111</v>
+        <v>0.8634794360606577</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>132809</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>112550</v>
+        <v>111598</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>155534</v>
+        <v>153906</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1466279223315054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1242610288505244</v>
+        <v>0.1232094755891572</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1717172990484948</v>
+        <v>0.1699197077012884</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>164</v>
@@ -4066,19 +4066,19 @@
         <v>187001</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>161422</v>
+        <v>162997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>215118</v>
+        <v>217076</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1898892210767603</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1639148056282255</v>
+        <v>0.1655145842531977</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2184399722375157</v>
+        <v>0.2204289725891813</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>296</v>
@@ -4087,19 +4087,19 @@
         <v>319810</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>286194</v>
+        <v>287219</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>354773</v>
+        <v>354114</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1691628382519401</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1513812595350327</v>
+        <v>0.1519236569064927</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1876562182918947</v>
+        <v>0.1873078037413536</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>772948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>750223</v>
+        <v>751851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>793207</v>
+        <v>794159</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8533720776684947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8282827009515051</v>
+        <v>0.8300802922987115</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8757389711494755</v>
+        <v>0.8767905244108422</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>744</v>
@@ -4137,19 +4137,19 @@
         <v>797790</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>769673</v>
+        <v>767715</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>823369</v>
+        <v>821794</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8101107789232397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7815600277624843</v>
+        <v>0.7795710274108187</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8360851943717744</v>
+        <v>0.8344854157468022</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1514</v>
@@ -4158,19 +4158,19 @@
         <v>1570738</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1535775</v>
+        <v>1536434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1604354</v>
+        <v>1603329</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8308371617480599</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8123437817081048</v>
+        <v>0.8126921962586464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.848618740464967</v>
+        <v>0.8480763430935073</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>556496</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>514088</v>
+        <v>514045</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>598081</v>
+        <v>601672</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1699786011504099</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1570254086604667</v>
+        <v>0.1570121827020046</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1826807526177207</v>
+        <v>0.1837775042048599</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>568</v>
@@ -4283,19 +4283,19 @@
         <v>624478</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>581536</v>
+        <v>580852</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>669814</v>
+        <v>673040</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1868392714366687</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1739914460676</v>
+        <v>0.1737867581413026</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2004033091940753</v>
+        <v>0.2013686481608608</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1093</v>
@@ -4304,19 +4304,19 @@
         <v>1180974</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1108972</v>
+        <v>1118694</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1241832</v>
+        <v>1241984</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1784961065829205</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.167613575970413</v>
+        <v>0.169082959754227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1876944203854455</v>
+        <v>0.1877174176137923</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2717420</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2675835</v>
+        <v>2672244</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2759828</v>
+        <v>2759871</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8300213988495901</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8173192473822793</v>
+        <v>0.8162224957951403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8429745913395333</v>
+        <v>0.8429878172979954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2592</v>
@@ -4354,19 +4354,19 @@
         <v>2717850</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2672514</v>
+        <v>2669288</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2760792</v>
+        <v>2761476</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8131607285633313</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7995966908059244</v>
+        <v>0.7986313518391396</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8260085539323996</v>
+        <v>0.8262132418586977</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5183</v>
@@ -4375,19 +4375,19 @@
         <v>5435270</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5374412</v>
+        <v>5374260</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5507272</v>
+        <v>5497550</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8215038934170795</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8123055796145546</v>
+        <v>0.8122825823862078</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8323864240295871</v>
+        <v>0.8309170402457732</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>123787</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105306</v>
+        <v>104630</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143693</v>
+        <v>143440</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1853067909478906</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1576405008252734</v>
+        <v>0.1566285500016615</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.21510636418426</v>
+        <v>0.2147275592801225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>253</v>
@@ -4740,19 +4740,19 @@
         <v>137755</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120385</v>
+        <v>121891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>154578</v>
+        <v>154902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1975839341140991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1726697877649893</v>
+        <v>0.1748310372305781</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2217138715165777</v>
+        <v>0.2221783082458275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>399</v>
@@ -4761,19 +4761,19 @@
         <v>261542</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>235837</v>
+        <v>238004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>287691</v>
+        <v>290736</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1915765932119355</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1727484769073878</v>
+        <v>0.1743354369633002</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.210730484974073</v>
+        <v>0.2129610183110024</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>544224</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>524318</v>
+        <v>524571</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>562705</v>
+        <v>563381</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8146932090521095</v>
+        <v>0.8146932090521094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7848936358157402</v>
+        <v>0.7852724407198776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8423594991747267</v>
+        <v>0.8433714499983386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>919</v>
@@ -4811,19 +4811,19 @@
         <v>559441</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>542618</v>
+        <v>542294</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>576811</v>
+        <v>575305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.802416065885901</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7782861284834225</v>
+        <v>0.7778216917541726</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8273302122350107</v>
+        <v>0.8251689627694219</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1481</v>
@@ -4832,19 +4832,19 @@
         <v>1103665</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1077516</v>
+        <v>1074471</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1129370</v>
+        <v>1127203</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8084234067880645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.789269515025927</v>
+        <v>0.7870389816889974</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8272515230926121</v>
+        <v>0.8256645630366997</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>165515</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>141475</v>
+        <v>140930</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>193836</v>
+        <v>192442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1595276776672634</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.136357766723451</v>
+        <v>0.1358319075695785</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.186823956810712</v>
+        <v>0.1854806412276744</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>240</v>
@@ -4957,19 +4957,19 @@
         <v>156145</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>138460</v>
+        <v>137188</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>177637</v>
+        <v>175924</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1505078642918161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1334618098385589</v>
+        <v>0.1322354257774955</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.171224430964555</v>
+        <v>0.169572892500142</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>407</v>
@@ -4978,19 +4978,19 @@
         <v>321659</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>288569</v>
+        <v>289773</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>357837</v>
+        <v>355419</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1550179459031512</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1390706465766934</v>
+        <v>0.1396507470616295</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1724530575885525</v>
+        <v>0.1712878549123154</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>872016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>843695</v>
+        <v>845089</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>896056</v>
+        <v>896601</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8404723223327365</v>
+        <v>0.8404723223327366</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8131760431892879</v>
+        <v>0.8145193587723257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.863642233276549</v>
+        <v>0.8641680924304215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1221</v>
@@ -5028,19 +5028,19 @@
         <v>881306</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>859814</v>
+        <v>861527</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>898991</v>
+        <v>900263</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8494921357081839</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.828775569035445</v>
+        <v>0.8304271074998579</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8665381901614412</v>
+        <v>0.8677645742225037</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2005</v>
@@ -5049,19 +5049,19 @@
         <v>1753323</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1717145</v>
+        <v>1719563</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1786413</v>
+        <v>1785209</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8449820540968489</v>
+        <v>0.8449820540968488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8275469424114474</v>
+        <v>0.8287121450876845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8609293534233066</v>
+        <v>0.8603492529383705</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>137707</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>115349</v>
+        <v>115757</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>161867</v>
+        <v>162558</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1747231456524755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1463549927898389</v>
+        <v>0.1468729384304397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2053774328327055</v>
+        <v>0.2062543362308882</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -5174,19 +5174,19 @@
         <v>127484</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110361</v>
+        <v>109875</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145343</v>
+        <v>146390</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1618713501059191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1401299456076316</v>
+        <v>0.1395132011099992</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1845481988602011</v>
+        <v>0.1858777614828897</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>303</v>
@@ -5195,19 +5195,19 @@
         <v>265191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>235798</v>
+        <v>237451</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>296614</v>
+        <v>295912</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1682996187463158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1496459107452871</v>
+        <v>0.1506952680802357</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1882419315037185</v>
+        <v>0.1877964388041713</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>650436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>626276</v>
+        <v>625585</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>672794</v>
+        <v>672386</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8252768543475243</v>
+        <v>0.8252768543475244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7946225671672944</v>
+        <v>0.7937456637691116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8536450072101612</v>
+        <v>0.8531270615695603</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>831</v>
@@ -5245,19 +5245,19 @@
         <v>660078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>642219</v>
+        <v>641172</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>677201</v>
+        <v>677687</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8381286498940808</v>
+        <v>0.838128649894081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8154518011397992</v>
+        <v>0.8141222385171104</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8598700543923689</v>
+        <v>0.860486798890001</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1370</v>
@@ -5266,19 +5266,19 @@
         <v>1310514</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1279091</v>
+        <v>1279793</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1339907</v>
+        <v>1338254</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8317003812536843</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8117580684962816</v>
+        <v>0.8122035611958288</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8503540892547129</v>
+        <v>0.8493047319197642</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>160295</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138153</v>
+        <v>138001</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186632</v>
+        <v>184950</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.167212740497258</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1441155219096191</v>
+        <v>0.1439566953556893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.194685871658567</v>
+        <v>0.1929310912984349</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>296</v>
@@ -5391,19 +5391,19 @@
         <v>196470</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>175718</v>
+        <v>177110</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216560</v>
+        <v>218054</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1836039600395852</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1642106750730853</v>
+        <v>0.1655114779011949</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2023782120025726</v>
+        <v>0.2037743315989522</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>469</v>
@@ -5412,19 +5412,19 @@
         <v>356766</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>324836</v>
+        <v>326672</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>385923</v>
+        <v>387060</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1758585759591334</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1601197982421762</v>
+        <v>0.1610244896820415</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1902310413726967</v>
+        <v>0.1907916332929278</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>798335</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>771998</v>
+        <v>773680</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>820477</v>
+        <v>820629</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.832787259502742</v>
+        <v>0.8327872595027421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.805314128341433</v>
+        <v>0.8070689087015651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8558844780903809</v>
+        <v>0.8560433046443107</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1193</v>
@@ -5462,19 +5462,19 @@
         <v>873607</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>853517</v>
+        <v>852023</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>894359</v>
+        <v>892967</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.816396039960415</v>
+        <v>0.8163960399604148</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7976217879974269</v>
+        <v>0.7962256684010471</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8357893249269143</v>
+        <v>0.8344885220988046</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1991</v>
@@ -5483,19 +5483,19 @@
         <v>1671941</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1642784</v>
+        <v>1641647</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1703871</v>
+        <v>1702035</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8241414240408665</v>
+        <v>0.8241414240408664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8097689586273034</v>
+        <v>0.8092083667070721</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8398802017578237</v>
+        <v>0.8389755103179584</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>587304</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>539066</v>
+        <v>538298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>632424</v>
+        <v>630263</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1701188478098171</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1561463603124457</v>
+        <v>0.1559238264511973</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1831883927307408</v>
+        <v>0.1825625650796149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>965</v>
@@ -5608,19 +5608,19 @@
         <v>617853</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>582723</v>
+        <v>581079</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>657904</v>
+        <v>658063</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1719944818956029</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.162215211839431</v>
+        <v>0.1617575678300949</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1831434492571926</v>
+        <v>0.1831877193253705</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1578</v>
@@ -5629,19 +5629,19 @@
         <v>1205157</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1141892</v>
+        <v>1144108</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1264879</v>
+        <v>1263225</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1710752985301051</v>
+        <v>0.171075298530105</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1620946296369999</v>
+        <v>0.1624092396576425</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1795529247436644</v>
+        <v>0.1793181573559217</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2865011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2819891</v>
+        <v>2822052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2913249</v>
+        <v>2914017</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.829881152190183</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8168116072692594</v>
+        <v>0.8174374349203852</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8438536396875544</v>
+        <v>0.8440761735488035</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4164</v>
@@ -5679,19 +5679,19 @@
         <v>2974433</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2934382</v>
+        <v>2934223</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3009563</v>
+        <v>3011207</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8280055181043972</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8168565507428075</v>
+        <v>0.8168122806746296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8377847881605691</v>
+        <v>0.8382424321699052</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6847</v>
@@ -5700,19 +5700,19 @@
         <v>5839444</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5779722</v>
+        <v>5781376</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5902709</v>
+        <v>5900493</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8289247014698949</v>
+        <v>0.8289247014698951</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8204470752563355</v>
+        <v>0.8206818426440786</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8379053703630001</v>
+        <v>0.8375907603423576</v>
       </c>
     </row>
     <row r="18">
